--- a/gitlab-to-github.xlsx
+++ b/gitlab-to-github.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsharma\Desktop\version control excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhegde\Desktop\New folder\SCM-Migration-DEMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCE8716-45EB-4477-8F03-7EE18313C64D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2781D654-C4E8-4CB1-A17F-3D305A9BABE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,19 +39,19 @@
     <t>project_to_import</t>
   </si>
   <si>
-    <t>varun1699sharma</t>
-  </si>
-  <si>
-    <t>repository1699/python</t>
-  </si>
-  <si>
-    <t>Python-MiniProjects</t>
-  </si>
-  <si>
-    <t>varun1699</t>
-  </si>
-  <si>
-    <t>test-private</t>
+    <t>vth1/python3</t>
+  </si>
+  <si>
+    <t>ec2-github-runner</t>
+  </si>
+  <si>
+    <t>vth1/kafka</t>
+  </si>
+  <si>
+    <t>AzureARMCICD</t>
+  </si>
+  <si>
+    <t>the-example-app.nodejs</t>
   </si>
 </sst>
 </file>
@@ -381,17 +381,17 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,32 +405,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/gitlab-to-github.xlsx
+++ b/gitlab-to-github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhegde\Desktop\New folder\SCM-Migration-DEMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2781D654-C4E8-4CB1-A17F-3D305A9BABE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D6B969-5AEE-466A-AD54-E27E84DE7F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,10 +48,10 @@
     <t>vth1/kafka</t>
   </si>
   <si>
-    <t>AzureARMCICD</t>
-  </si>
-  <si>
     <t>the-example-app.nodejs</t>
+  </si>
+  <si>
+    <t>swathisabhahit</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/gitlab-to-github.xlsx
+++ b/gitlab-to-github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhegde\Desktop\New folder\SCM-Migration-DEMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D6B969-5AEE-466A-AD54-E27E84DE7F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568D640A-DFDF-4835-B036-7DBBC6F1857D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/gitlab-to-github.xlsx
+++ b/gitlab-to-github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhegde\Desktop\New folder\SCM-Migration-DEMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568D640A-DFDF-4835-B036-7DBBC6F1857D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D31D738-BE29-4373-B274-9C5E5E538996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,16 +42,16 @@
     <t>vth1/python3</t>
   </si>
   <si>
-    <t>ec2-github-runner</t>
-  </si>
-  <si>
-    <t>vth1/kafka</t>
-  </si>
-  <si>
     <t>the-example-app.nodejs</t>
   </si>
   <si>
     <t>swathisabhahit</t>
+  </si>
+  <si>
+    <t>vth1/test4</t>
+  </si>
+  <si>
+    <t>ngnix_argo</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,13 +410,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
